--- a/demo/data/CC_MM_WAREHOUSE_DEMO.XLSX
+++ b/demo/data/CC_MM_WAREHOUSE_DEMO.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niuren.Zhu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1DFB7-E492-8345-8E65-5A4337D0EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420"/>
+    <workbookView xWindow="7440" yWindow="4000" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="仓库" sheetId="1" r:id="rId1"/>
@@ -19,88 +20,297 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Template@ibas</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>type: Head_x000D_
-path: Warehouse_x000D_
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">type: Head
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">path: Warehouse
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>class: org.colorcoding.ibas.materials.bo.warehouse.Warehouse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Object
+path: Warehouse
 class: org.colorcoding.ibas.materials.bo.warehouse.Warehouse</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>type: Object_x000D_
-path: Warehouse_x000D_
-class: org.colorcoding.ibas.materials.bo.warehouse.Warehouse</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>type: Property_x000D_
-path: Code_x000D_
-class: java.lang.String</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>type: Property_x000D_
-path: Name_x000D_
-class: java.lang.String</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>type: Property_x000D_
-path: Activated_x000D_
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Code
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Name
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: BarCode
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Activated
 class: org.colorcoding.ibas.bobas.data.emYesNo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Street
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: District
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: City
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Province
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Country
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: ZipCode
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Supplier
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Schedulable
+class: org.colorcoding.ibas.bobas.data.emYesNo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Reservable
+class: org.colorcoding.ibas.bobas.data.emYesNo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Branch
+class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: Property
+path: Remarks
+class: java.lang.String</t>
         </r>
       </text>
     </comment>
@@ -109,57 +319,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>仓库</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>激活</t>
+    <t>编码 (8)</t>
+  </si>
+  <si>
+    <t>名称 (100)</t>
+  </si>
+  <si>
+    <t>条形码 (15)</t>
+  </si>
+  <si>
+    <t>激活 (1)</t>
+  </si>
+  <si>
+    <t>街道 (100)</t>
+  </si>
+  <si>
+    <t>县/区 (100)</t>
+  </si>
+  <si>
+    <t>市 (100)</t>
+  </si>
+  <si>
+    <t>省 (100)</t>
+  </si>
+  <si>
+    <t>国 (100)</t>
+  </si>
+  <si>
+    <t>邮编 (10)</t>
+  </si>
+  <si>
+    <t>供应商 (20)</t>
+  </si>
+  <si>
+    <t>可排程 (1)</t>
+  </si>
+  <si>
+    <t>可预留 (1)</t>
+  </si>
+  <si>
+    <t>分支 (8)</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
+    <t>WH0001</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>主仓库</t>
   </si>
   <si>
+    <t>WH0002</t>
+  </si>
+  <si>
     <t>附属仓库</t>
   </si>
   <si>
+    <t>WH0003</t>
+  </si>
+  <si>
     <t>直运发货仓库</t>
   </si>
   <si>
+    <t>WH0004</t>
+  </si>
+  <si>
     <t>寄售仓库</t>
-  </si>
-  <si>
-    <t>WH0001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WH0002</t>
-  </si>
-  <si>
-    <t>WH0003</t>
-  </si>
-  <si>
-    <t>WH0004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,23 +414,25 @@
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -220,14 +468,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,16 +479,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,35 +796,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,64 +854,162 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C7">
+    <dataValidation type="list" allowBlank="1" sqref="D4:D7 L4:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NO,YES"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>